--- a/Dokumentasjon/Teknisk dokumentasjon.xlsx
+++ b/Dokumentasjon/Teknisk dokumentasjon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/saaha018_osloskolen_no/Documents/IM VG2/Årsoppgave/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/saaha018_osloskolen_no/Documents/IM VG2/Årsoppgave/Dokumentasjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{40E5E946-4CA0-425C-B0A0-620F8B9814F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D0F1305-B4B4-4180-8034-26A405770433}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{40E5E946-4CA0-425C-B0A0-620F8B9814F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1DE8D4-B6BB-4212-BC7C-EBCC84B53A24}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{941123DB-220D-4A0A-859D-26A54D1CA883}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>DATABASE</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>IPv4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>admin05</t>
   </si>
 </sst>
 </file>
@@ -172,6 +184,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17CE7A5-5BF5-4438-B350-296C4C3CB996}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -586,7 +602,36 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumentasjon/Teknisk dokumentasjon.xlsx
+++ b/Dokumentasjon/Teknisk dokumentasjon.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/saaha018_osloskolen_no/Documents/IM VG2/Årsoppgave/Dokumentasjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{40E5E946-4CA0-425C-B0A0-620F8B9814F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1DE8D4-B6BB-4212-BC7C-EBCC84B53A24}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{40E5E946-4CA0-425C-B0A0-620F8B9814F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A67442C-1DD5-4080-B988-70316DF5F762}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{941123DB-220D-4A0A-859D-26A54D1CA883}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>DATABASE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>DB_NAVN</t>
   </si>
@@ -50,9 +47,6 @@
     <t>DB_BRUKERNAVN</t>
   </si>
   <si>
-    <t>mat-bestilling</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
@@ -62,30 +56,12 @@
     <t>localhost</t>
   </si>
   <si>
-    <t>ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>full_navn</t>
-  </si>
-  <si>
     <t>Salahudin Ahmad</t>
   </si>
   <si>
-    <t>brukernavn</t>
-  </si>
-  <si>
     <t>salahudin123</t>
   </si>
   <si>
-    <t>passord</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>192.168.0.132</t>
   </si>
   <si>
@@ -95,9 +71,6 @@
     <t>Skole</t>
   </si>
   <si>
-    <t>HYPER-V (VS)</t>
-  </si>
-  <si>
     <t>Gateway</t>
   </si>
   <si>
@@ -107,29 +80,47 @@
     <t>10.2.3.32</t>
   </si>
   <si>
-    <t>10.0.0.1</t>
-  </si>
-  <si>
     <t>IPv4</t>
   </si>
   <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>admin05</t>
+    <t>IMKuben1337!</t>
+  </si>
+  <si>
+    <t>admin3010</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Brukernavn</t>
+  </si>
+  <si>
+    <t>matbestilling</t>
+  </si>
+  <si>
+    <t>Hyper-V</t>
+  </si>
+  <si>
+    <t>Passord</t>
+  </si>
+  <si>
+    <t>SQL Database</t>
+  </si>
+  <si>
+    <t>Lokasjon</t>
+  </si>
+  <si>
+    <t>Navn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,16 +136,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -162,18 +182,296 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -188,6 +486,23 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78032D40-10EF-4E0B-80D9-DC9F013C548C}" name="Tabell3" displayName="Tabell3" ref="A2:I5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A8F43E4D-70F2-4954-9D45-74613939CA23}" name="SQL Database" headerRowDxfId="2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F917E632-5A2F-4986-9202-7E2491784B34}" name="Kolonne1" headerRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0139623E-F8C3-4F45-B698-C60EB667CB7A}" name="Linux" headerRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3F719804-4E3D-4C49-B549-A6621DA26542}" name="Kolonne2" headerRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9D25A23C-64FE-4552-8589-18417F39CEFF}" name="Hyper-V" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{1F499FE2-0F98-4A09-96DD-D94F8A7050F2}" name="Kolonne3" headerRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9CD5FCD5-BD16-42FB-AE39-3CC635F8A77A}" name="Kolonne4"/>
+    <tableColumn id="8" xr3:uid="{C0ED2834-7913-42BB-AA8A-8527DF87AA78}" name="Kolonne5" headerRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{05A0DF1C-CA56-43B5-ABA7-3E9C4E22D076}" name="Kolonne6" headerRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,155 +801,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17CE7A5-5BF5-4438-B350-296C4C3CB996}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DACDDF-C15E-4628-91BA-1A8914427138}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>